--- a/biology/Écologie/Le_Parfum_d'Adam/Le_Parfum_d'Adam.xlsx
+++ b/biology/Écologie/Le_Parfum_d'Adam/Le_Parfum_d'Adam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Parfum_d%27Adam</t>
+          <t>Le_Parfum_d'Adam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parfum d'Adam est un roman de Jean-Christophe Rufin, publié chez Flammarion en janvier 2007.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Parfum_d%27Adam</t>
+          <t>Le_Parfum_d'Adam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les extrémistes estiment que la surpopulation du tiers monde est un risque majeur pour la planète. Partisans de la décroissance démographique, ils décident de lutter contre cette surpopulation en menant des actions de bioterrorisme à base d'une nouvelle souche de choléra.
 </t>
